--- a/conv_details_pandas.xlsx
+++ b/conv_details_pandas.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,14 +374,14 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>currentConfirmedCount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>confirmedCount</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>suspectedCount</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>curedCount</t>
@@ -395,6 +395,11 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>locationId</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cityEnglishName</t>
         </is>
       </c>
     </row>
@@ -404,24 +409,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>外地来沪人员</t>
+          <t>境外输入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -429,24 +435,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>浦东新区</t>
+          <t>外地来沪</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>310115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -458,19 +465,24 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>310113</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Baoshan District</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -479,23 +491,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>闵行区</t>
+          <t>嘉定区</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>310112</v>
+        <v>310114</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jiading District</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -504,23 +521,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>静安区</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>310106</v>
+        <v>310115</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pudong District</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -529,23 +551,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>徐汇区</t>
+          <t>闵行区</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>310104</v>
+        <v>310112</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Minhang District</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -554,23 +581,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>松江区</t>
+          <t>徐汇区</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>310117</v>
+        <v>310104</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Xuhui District</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -579,23 +611,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>长宁区</t>
+          <t>静安区</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>310105</v>
+        <v>310106</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Jing'an District</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -604,23 +641,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>奉贤区</t>
+          <t>松江区</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>310120</v>
+        <v>310117</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Songjiang District</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -629,23 +671,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>普陀区</t>
+          <t>长宁区</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>310107</v>
+        <v>310105</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Changning District</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -654,23 +701,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>杨浦区</t>
+          <t>普陀区</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>310110</v>
+        <v>310107</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Putuo District</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -679,23 +731,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>嘉定区</t>
+          <t>杨浦区</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>310114</v>
+        <v>310110</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yangpu District</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -704,23 +761,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>虹口区</t>
+          <t>奉贤区</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>310109</v>
+        <v>310120</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Fengxian District</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -729,23 +791,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>青浦区</t>
+          <t>虹口区</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>310118</v>
+        <v>310109</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Hongkou District</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -758,19 +825,24 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>310101</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Huangpu District</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -779,23 +851,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>金山区</t>
+          <t>青浦区</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>310116</v>
+        <v>310118</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Qingpu District</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -804,66 +881,155 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>金山区</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>310116</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Jinshan District</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>崇明区</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>310151</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Chongming District</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>待明确地区</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Area not defined</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>汇总</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>303</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>52</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>173</v>
+      </c>
+      <c r="D21" t="n">
+        <v>522</v>
+      </c>
+      <c r="E21" t="n">
+        <v>343</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>平均值</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>17.82352941176471</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3.058823529411764</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>9.105263157894736</v>
+      </c>
+      <c r="D22" t="n">
+        <v>27.47368421052632</v>
+      </c>
+      <c r="E22" t="n">
+        <v>18.05263157894737</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>中位数</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/conv_details_pandas.xlsx
+++ b/conv_details_pandas.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,22 +384,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>suspectedCount</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>curedCount</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>deadCount</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>locationId</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>cityEnglishName</t>
         </is>
       </c>
     </row>
@@ -419,15 +414,14 @@
         <v>183</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>16</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -445,15 +439,14 @@
         <v>111</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>107</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -471,18 +464,13 @@
         <v>22</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>19</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>310113</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Baoshan District</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -501,18 +489,13 @@
         <v>9</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>7</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>310114</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Jiading District</t>
-        </is>
       </c>
     </row>
     <row r="6">
@@ -531,18 +514,13 @@
         <v>61</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>60</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>310115</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Pudong District</t>
-        </is>
       </c>
     </row>
     <row r="7">
@@ -561,18 +539,13 @@
         <v>19</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>19</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
-        <v>310112</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Minhang District</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -591,18 +564,13 @@
         <v>18</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>17</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>310104</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Xuhui District</t>
-        </is>
       </c>
     </row>
     <row r="9">
@@ -621,18 +589,13 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>15</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>310106</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Jing'an District</t>
-        </is>
       </c>
     </row>
     <row r="10">
@@ -651,18 +614,13 @@
         <v>14</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>14</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
-        <v>310117</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Songjiang District</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -681,18 +639,13 @@
         <v>13</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>13</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>310105</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Changning District</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -711,18 +664,13 @@
         <v>11</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>11</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
-        <v>310107</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Putuo District</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -741,18 +689,13 @@
         <v>9</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>9</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
-        <v>310110</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Yangpu District</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -771,18 +714,13 @@
         <v>9</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>9</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>310120</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Fengxian District</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -801,18 +739,13 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>7</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
-        <v>310109</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Hongkou District</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -831,18 +764,13 @@
         <v>6</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>6</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
-        <v>310101</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Huangpu District</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -861,18 +789,13 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>6</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
-        <v>310118</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Qingpu District</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -891,18 +814,13 @@
         <v>4</v>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>4</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
-        <v>310116</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Jinshan District</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -921,18 +839,13 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>4</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="G19" t="n">
-        <v>310151</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Chongming District</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -954,21 +867,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Area not defined</t>
-        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>汇总</t>
+          <t>Count</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -979,18 +887,19 @@
         <v>522</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>343</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>6</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>平均值</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1001,18 +910,19 @@
         <v>27.47368421052632</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>18.05263157894737</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.3157894736842105</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>中位数</t>
+          <t>Median</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1023,13 +933,14 @@
         <v>11</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>11</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
